--- a/project/src/app/data/entry.xlsx
+++ b/project/src/app/data/entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\framework\nnt.game.h5\project\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC94713-652F-431E-9C38-8BB8E94983A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2E2C1-015C-40ED-9AFD-5937D4A8269D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>名字</t>
   </si>
@@ -77,54 +77,8 @@
     <t>visible</t>
   </si>
   <si>
-    <t>测试模块2</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pp.Test</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -141,46 +95,103 @@
       </rPr>
       <t>est</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试模式下弹出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关闭时隐藏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>testhidden</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>app.main.MainScene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.list.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.normal.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试对话框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.dialog.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.service.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试动效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.ani.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,8 +243,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,31 +588,87 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -658,10 +725,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -669,17 +736,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project/src/app/data/entry.xlsx
+++ b/project/src/app/data/entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\framework\nnt.game.h5\project\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2E2C1-015C-40ED-9AFD-5937D4A8269D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C378F9-DFD6-41A1-9891-B42D3386B423}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>名字</t>
   </si>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>app.ani.Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>panelback</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,6 +673,14 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
